--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1670D11-4A33-4B88-B035-B2A95C5E5283}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53288DC7-9151-4327-9561-0DA8E4E4DF25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
   <si>
     <t>Question</t>
   </si>
@@ -391,6 +391,9 @@
   <si>
     <t>Після досилання набою в патронник поставити зброю на запобіжник</t>
   </si>
+  <si>
+    <t>Variant</t>
+  </si>
 </sst>
 </file>
 
@@ -683,10 +686,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB672"/>
+  <dimension ref="A1:AC672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -704,10 +707,12 @@
     <col min="15" max="16" width="41.42578125" style="2" customWidth="1"/>
     <col min="17" max="26" width="33" style="2" customWidth="1"/>
     <col min="27" max="27" width="22.85546875" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="12.5703125" style="2"/>
+    <col min="28" max="28" width="12.5703125" style="2"/>
+    <col min="29" max="29" width="14" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -792,8 +797,11 @@
       <c r="AB1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" s="3" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC1" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="3" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>93</v>
@@ -852,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>30</v>
@@ -898,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>35</v>
@@ -944,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -990,7 +998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>45</v>
@@ -1036,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>50</v>
@@ -1082,7 +1090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>70</v>
@@ -1128,7 +1136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>69</v>
@@ -1174,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>59</v>
@@ -1220,7 +1228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>64</v>
@@ -1266,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>92</v>
       </c>
@@ -1344,7 +1352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>85</v>
@@ -1394,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>113</v>
@@ -1450,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>104</v>
@@ -1510,7 +1518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53288DC7-9151-4327-9561-0DA8E4E4DF25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9811D2-633A-4BAA-B8BF-DD80A3FC4568}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -229,34 +229,6 @@
     <t>1 метр на відстані 10 кілометрів</t>
   </si>
   <si>
-    <r>
-      <t>Що таке MOA (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>англ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>. Minute of angle)?</t>
-    </r>
-  </si>
-  <si>
     <t>Початкова швидкість кулі- це...</t>
   </si>
   <si>
@@ -393,6 +365,58 @@
   </si>
   <si>
     <t>Variant</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Що таке MOA (на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>англ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. Minute of angle)?</t>
+    </r>
+  </si>
+  <si>
+    <t>matching</t>
+  </si>
+  <si>
+    <t>Калібр, мм</t>
+  </si>
+  <si>
+    <t>Довжина зброї, мм</t>
+  </si>
+  <si>
+    <t>Довжина ствола, мм</t>
+  </si>
+  <si>
+    <t>Висота зброї, мм</t>
+  </si>
+  <si>
+    <t>Маса без патронів, г</t>
+  </si>
+  <si>
+    <t>Ємність магазина</t>
+  </si>
+  <si>
+    <t>Тактико-технічні характеристики Glock-17</t>
   </si>
 </sst>
 </file>
@@ -688,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:AC672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -798,57 +822,57 @@
         <v>8</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -1093,19 +1117,19 @@
     <row r="8" spans="1:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1116,7 +1140,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1139,7 +1163,7 @@
     <row r="9" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>55</v>
@@ -1276,72 +1300,72 @@
     </row>
     <row r="12" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>76</v>
+      <c r="S12" s="4" t="s">
+        <v>82</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="T12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="V12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="U12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="X12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
@@ -1355,25 +1379,25 @@
     <row r="13" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1382,7 +1406,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1402,25 +1426,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1430,19 +1454,19 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -1461,25 +1485,25 @@
     <row r="15" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1488,22 +1512,22 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -1518,34 +1542,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="O16" s="4">
+        <v>9</v>
+      </c>
+      <c r="P16" s="4">
+        <v>186</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>114</v>
+      </c>
+      <c r="R16" s="4">
+        <v>138</v>
+      </c>
+      <c r="S16" s="4">
+        <v>625</v>
+      </c>
+      <c r="T16" s="4">
+        <v>17</v>
+      </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
+      <c r="AA16" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9811D2-633A-4BAA-B8BF-DD80A3FC4568}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188DDD15-947B-414B-BEC8-9A9234A33D25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,9 +268,6 @@
     <t>Послідовність неповного розбирання автомата Калашнікова АКС-74</t>
   </si>
   <si>
-    <t xml:space="preserve">відокремити дульне гальмо-компенсатор </t>
-  </si>
-  <si>
     <t>Відокремити зворотній механізм</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>Тактико-технічні характеристики Glock-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Відокремити дульне гальмо-компенсатор </t>
   </si>
 </sst>
 </file>
@@ -712,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:AC672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="N8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -822,57 +822,57 @@
         <v>8</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -1163,7 +1163,7 @@
     <row r="9" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>55</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="12" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>81</v>
@@ -1312,7 +1312,7 @@
         <v>75</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>76</v>
@@ -1324,7 +1324,7 @@
         <v>78</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>79</v>
@@ -1333,12 +1333,12 @@
         <v>80</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>80</v>
@@ -1350,13 +1350,13 @@
         <v>75</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>77</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>79</v>
@@ -1379,25 +1379,25 @@
     <row r="13" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1406,7 +1406,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1429,22 +1429,22 @@
     <row r="14" spans="1:29" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1454,19 +1454,19 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>80</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -1485,25 +1485,25 @@
     <row r="15" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1512,22 +1512,22 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -1545,25 +1545,25 @@
     <row r="16" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1596,7 +1596,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB16" s="4"/>
     </row>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188DDD15-947B-414B-BEC8-9A9234A33D25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509AFD4A-39DE-47C7-98D7-27AA8DD07491}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,34 +364,6 @@
     <t>Variant</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Що таке MOA (на </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>англ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>. Minute of angle)?</t>
-    </r>
-  </si>
-  <si>
     <t>matching</t>
   </si>
   <si>
@@ -418,12 +390,38 @@
   <si>
     <t xml:space="preserve">Відокремити дульне гальмо-компенсатор </t>
   </si>
+  <si>
+    <r>
+      <t>Що таке MOA (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>англ. Minute of angle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -439,15 +437,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -712,8 +701,8 @@
   </sheetPr>
   <dimension ref="A1:AC672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1152,7 @@
     <row r="9" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>55</v>
@@ -1333,7 +1322,7 @@
         <v>80</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1350,7 +1339,7 @@
         <v>75</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>77</v>
@@ -1545,25 +1534,25 @@
     <row r="16" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1596,9 +1585,11 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
-      <c r="AB16" s="4"/>
+      <c r="AB16" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509AFD4A-39DE-47C7-98D7-27AA8DD07491}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C52BF49-10BE-48F0-945F-4D2B141BF512}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,30 +391,7 @@
     <t xml:space="preserve">Відокремити дульне гальмо-компенсатор </t>
   </si>
   <si>
-    <r>
-      <t>Що таке MOA (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>англ. Minute of angle</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)?</t>
-    </r>
+    <t>Що таке MOA (Minute of angle)?</t>
   </si>
 </sst>
 </file>
@@ -701,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:AC672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1166,7 +1143,6 @@
       <c r="F9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C52BF49-10BE-48F0-945F-4D2B141BF512}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577A16F0-9880-4E1E-87AB-EB42BD36633E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,8 +678,8 @@
   </sheetPr>
   <dimension ref="A1:AC672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="T14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577A16F0-9880-4E1E-87AB-EB42BD36633E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A7431-DC72-4383-BF9D-979C446E061A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
   <si>
     <t>Question</t>
   </si>
@@ -393,6 +393,18 @@
   <si>
     <t>Що таке MOA (Minute of angle)?</t>
   </si>
+  <si>
+    <t>Столиця ___ — це ___, а не ___.</t>
+  </si>
+  <si>
+    <t>України</t>
+  </si>
+  <si>
+    <t>Київ</t>
+  </si>
+  <si>
+    <t>Львів</t>
+  </si>
 </sst>
 </file>
 
@@ -678,8 +690,8 @@
   </sheetPr>
   <dimension ref="A1:AC672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" topLeftCell="J14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1567,9 +1579,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1582,9 +1596,15 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="O17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A7431-DC72-4383-BF9D-979C446E061A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E70062-5E21-4208-A011-107AEA9270BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
   <si>
     <t>Question</t>
   </si>
@@ -405,6 +405,9 @@
   <si>
     <t>Львів</t>
   </si>
+  <si>
+    <t>fillblank</t>
+  </si>
 </sst>
 </file>
 
@@ -690,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:AC672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1614,8 +1617,12 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
+      <c r="AA17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E70062-5E21-4208-A011-107AEA9270BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111D0C57-6AA3-4129-846B-A85D81DA9CAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t>Question</t>
   </si>
@@ -394,19 +394,19 @@
     <t>Що таке MOA (Minute of angle)?</t>
   </si>
   <si>
-    <t>Столиця ___ — це ___, а не ___.</t>
+    <t>fillblank</t>
   </si>
   <si>
-    <t>України</t>
-  </si>
-  <si>
-    <t>Київ</t>
-  </si>
-  <si>
-    <t>Львів</t>
-  </si>
-  <si>
-    <t>fillblank</t>
+    <t>Перевірка бою і приведення до нормального бою автомата АК-74.
+Підготувати і встановити перевірочну мішень (або чорний прямокутник розміром ___ см по висотіта та ___ см в ширину), закріплену на білому щиті висотою ___ м та шириною ___ м, на відстані ___ м.
+Встановити на автоматі приціл ___.
+Із положення лежачи з упору правильно та однаково прицілюючись, з врахуванням того, що точка прицілювання розмішується на середині нижнього краю мішені, зробити ___ одиночних постріли.
+Визначити кучність стрільби і положення середньої точки влучення (СТВ):
+- якщо чотири пробоїни (чи три при одній віддаленій) входять у встановлений габарит (коло діаметром ___ см). то кучність бою автомата визнається нормальною і далі треба визначити СТВ;
+- визначити СТВ;
+- при умові, що СТВ відхилилась від КТ (контрольна точка знаходиться по вертикальній лінії вище точки прицілювання на ___ см) не більш як на ___ см у будь-якому напрямку, автомат приведено до нормального бою, якщо більше потрібно провести регулювання мушки і повторити стрільбу.
+При переміщенні мушки в бік на 1 мм середня точка влучення при стрільбі на 100 м змішується на ___ см. Один повний оберт мушки переміщує СТВ по висоті при стрільбі на ___ см.
+Правильність переміщення мушки перевіряється повторною стрільбою.</t>
   </si>
 </sst>
 </file>
@@ -691,10 +691,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC672"/>
+  <dimension ref="A1:AC671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1582,10 +1582,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1599,26 +1599,44 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4" t="s">
-        <v>125</v>
+      <c r="O17" s="4">
+        <v>35</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>126</v>
+      <c r="P17" s="4">
+        <v>25</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>127</v>
+      <c r="Q17" s="4">
+        <v>1</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="R17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S17" s="4">
+        <v>100</v>
+      </c>
+      <c r="T17" s="4">
+        <v>3</v>
+      </c>
+      <c r="U17" s="4">
+        <v>4</v>
+      </c>
+      <c r="V17" s="4">
+        <v>15</v>
+      </c>
+      <c r="W17" s="4">
+        <v>13</v>
+      </c>
+      <c r="X17" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>26</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>20</v>
+      </c>
       <c r="AA17" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB17" s="4">
         <v>2</v>
@@ -1804,7 +1822,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -1834,7 +1852,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
@@ -21244,36 +21262,6 @@
       <c r="AA671" s="4"/>
       <c r="AB671" s="4"/>
     </row>
-    <row r="672" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A672" s="4"/>
-      <c r="B672" s="5"/>
-      <c r="C672" s="4"/>
-      <c r="D672" s="4"/>
-      <c r="E672" s="4"/>
-      <c r="F672" s="4"/>
-      <c r="G672" s="4"/>
-      <c r="H672" s="4"/>
-      <c r="I672" s="4"/>
-      <c r="J672" s="4"/>
-      <c r="K672" s="4"/>
-      <c r="L672" s="4"/>
-      <c r="M672" s="4"/>
-      <c r="N672" s="4"/>
-      <c r="O672" s="4"/>
-      <c r="P672" s="4"/>
-      <c r="Q672" s="4"/>
-      <c r="R672" s="4"/>
-      <c r="S672" s="4"/>
-      <c r="T672" s="4"/>
-      <c r="U672" s="4"/>
-      <c r="V672" s="4"/>
-      <c r="W672" s="4"/>
-      <c r="X672" s="4"/>
-      <c r="Y672" s="4"/>
-      <c r="Z672" s="4"/>
-      <c r="AA672" s="4"/>
-      <c r="AB672" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111D0C57-6AA3-4129-846B-A85D81DA9CAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62CE3DB-5A0B-4DC6-8123-A441127FD31C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="127">
   <si>
     <t>Question</t>
   </si>
@@ -408,6 +408,9 @@
 При переміщенні мушки в бік на 1 мм середня точка влучення при стрільбі на 100 м змішується на ___ см. Один повний оберт мушки переміщує СТВ по висоті при стрільбі на ___ см.
 Правильність переміщення мушки перевіряється повторною стрільбою.</t>
   </si>
+  <si>
+    <t>singlechoice</t>
+  </si>
 </sst>
 </file>
 
@@ -693,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:AC671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="O13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -905,7 +908,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="AB3" s="4">
         <v>2</v>
@@ -951,7 +954,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="AB4" s="4">
         <v>2</v>
@@ -997,7 +1000,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="AB5" s="4">
         <v>2</v>
@@ -1043,7 +1046,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="AB6" s="4">
         <v>2</v>
@@ -1089,7 +1092,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="AB7" s="4">
         <v>2</v>
@@ -1135,7 +1138,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="AB8" s="4">
         <v>2</v>
@@ -1180,7 +1183,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="AB9" s="4">
         <v>2</v>
@@ -1226,7 +1229,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="AB10" s="4">
         <v>2</v>
@@ -1272,7 +1275,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="AB11" s="4">
         <v>2</v>
@@ -1400,7 +1403,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="AB13" s="4">
         <v>2</v>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62CE3DB-5A0B-4DC6-8123-A441127FD31C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209DEC2-5A6B-49A4-8C8D-247545587B61}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:AC671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209DEC2-5A6B-49A4-8C8D-247545587B61}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885390F8-A630-4940-AB8A-820EB92B8CB8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   </sheetPr>
   <dimension ref="A1:AC671"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Программирование\test-with-password\alphatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885390F8-A630-4940-AB8A-820EB92B8CB8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CA1E07-A5D3-45FA-844A-DCEB760BCFA0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,9 +292,6 @@
     <t>50 метрів</t>
   </si>
   <si>
-    <t>Picture 21</t>
-  </si>
-  <si>
     <t>Виберіть пункти Кодексу стрільця</t>
   </si>
   <si>
@@ -410,6 +407,9 @@
   </si>
   <si>
     <t>singlechoice</t>
+  </si>
+  <si>
+    <t>Picture21</t>
   </si>
 </sst>
 </file>
@@ -696,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:AC671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -806,57 +806,57 @@
         <v>8</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -908,7 +908,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB3" s="4">
         <v>2</v>
@@ -954,7 +954,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB4" s="4">
         <v>2</v>
@@ -1000,7 +1000,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB5" s="4">
         <v>2</v>
@@ -1046,7 +1046,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB6" s="4">
         <v>2</v>
@@ -1092,7 +1092,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB7" s="4">
         <v>2</v>
@@ -1138,7 +1138,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB8" s="4">
         <v>2</v>
@@ -1147,7 +1147,7 @@
     <row r="9" spans="1:29" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>55</v>
@@ -1183,7 +1183,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB9" s="4">
         <v>2</v>
@@ -1229,7 +1229,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB10" s="4">
         <v>2</v>
@@ -1275,7 +1275,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB11" s="4">
         <v>2</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="12" spans="1:29" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>81</v>
@@ -1295,7 +1295,7 @@
         <v>75</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>76</v>
@@ -1316,12 +1316,12 @@
         <v>80</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>80</v>
@@ -1333,7 +1333,7 @@
         <v>75</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>77</v>
@@ -1403,7 +1403,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB13" s="4">
         <v>2</v>
@@ -1412,22 +1412,22 @@
     <row r="14" spans="1:29" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1437,19 +1437,19 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>80</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -1468,25 +1468,25 @@
     <row r="15" spans="1:29" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1495,22 +1495,22 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -1528,25 +1528,25 @@
     <row r="16" spans="1:29" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1579,7 +1579,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB16" s="4">
         <v>2</v>
@@ -1588,7 +1588,7 @@
     <row r="17" spans="1:28" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1639,7 +1639,7 @@
         <v>20</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB17" s="4">
         <v>2</v>
